--- a/10/3/Industria manufacturera 2003 a 2021 - Mensual.xlsx
+++ b/10/3/Industria manufacturera 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
   <si>
     <t>Serie</t>
   </si>
@@ -701,6 +701,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1061,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P214"/>
+  <dimension ref="A1:P215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11764,6 +11767,56 @@
         <v>61.3</v>
       </c>
     </row>
+    <row r="215" spans="1:16">
+      <c r="A215" t="s">
+        <v>229</v>
+      </c>
+      <c r="B215">
+        <v>59.2</v>
+      </c>
+      <c r="C215">
+        <v>41.7</v>
+      </c>
+      <c r="D215">
+        <v>62.1</v>
+      </c>
+      <c r="E215">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="F215">
+        <v>56.8</v>
+      </c>
+      <c r="G215">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="H215">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="I215">
+        <v>68</v>
+      </c>
+      <c r="J215">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="K215">
+        <v>60.7</v>
+      </c>
+      <c r="L215">
+        <v>62.6</v>
+      </c>
+      <c r="M215">
+        <v>67.5</v>
+      </c>
+      <c r="N215">
+        <v>62.1</v>
+      </c>
+      <c r="O215">
+        <v>3.8</v>
+      </c>
+      <c r="P215">
+        <v>62.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10/3/Industria manufacturera 2003 a 2021 - Mensual.xlsx
+++ b/10/3/Industria manufacturera 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
   <si>
     <t>Serie</t>
   </si>
@@ -704,6 +704,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P215"/>
+  <dimension ref="A1:P216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11817,6 +11820,56 @@
         <v>62.9</v>
       </c>
     </row>
+    <row r="216" spans="1:16">
+      <c r="A216" t="s">
+        <v>230</v>
+      </c>
+      <c r="B216">
+        <v>58.6</v>
+      </c>
+      <c r="C216">
+        <v>42.9</v>
+      </c>
+      <c r="D216">
+        <v>61</v>
+      </c>
+      <c r="E216">
+        <v>73.5</v>
+      </c>
+      <c r="F216">
+        <v>56.2</v>
+      </c>
+      <c r="G216">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="H216">
+        <v>76.2</v>
+      </c>
+      <c r="I216">
+        <v>71</v>
+      </c>
+      <c r="J216">
+        <v>90</v>
+      </c>
+      <c r="K216">
+        <v>60</v>
+      </c>
+      <c r="L216">
+        <v>64.8</v>
+      </c>
+      <c r="M216">
+        <v>57.1</v>
+      </c>
+      <c r="N216">
+        <v>59</v>
+      </c>
+      <c r="O216">
+        <v>4.5</v>
+      </c>
+      <c r="P216">
+        <v>61.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10/3/Industria manufacturera 2003 a 2021 - Mensual.xlsx
+++ b/10/3/Industria manufacturera 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
   <si>
     <t>Serie</t>
   </si>
@@ -707,6 +707,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1067,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P216"/>
+  <dimension ref="A1:P217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11870,6 +11873,56 @@
         <v>61.9</v>
       </c>
     </row>
+    <row r="217" spans="1:16">
+      <c r="A217" t="s">
+        <v>231</v>
+      </c>
+      <c r="B217">
+        <v>60.1</v>
+      </c>
+      <c r="C217">
+        <v>43.6</v>
+      </c>
+      <c r="D217">
+        <v>57.8</v>
+      </c>
+      <c r="E217">
+        <v>75</v>
+      </c>
+      <c r="F217">
+        <v>57.8</v>
+      </c>
+      <c r="G217">
+        <v>63.8</v>
+      </c>
+      <c r="H217">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="I217">
+        <v>70.2</v>
+      </c>
+      <c r="J217">
+        <v>88.5</v>
+      </c>
+      <c r="K217">
+        <v>58.3</v>
+      </c>
+      <c r="L217">
+        <v>59.2</v>
+      </c>
+      <c r="M217">
+        <v>37.6</v>
+      </c>
+      <c r="N217">
+        <v>56.4</v>
+      </c>
+      <c r="O217">
+        <v>4.8</v>
+      </c>
+      <c r="P217">
+        <v>59.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
